--- a/storage/app/templates/SpecialLeaveSummary.xlsx
+++ b/storage/app/templates/SpecialLeaveSummary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
     <col min="1" max="1" width="22.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="4" width="18" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/storage/app/templates/SpecialLeaveSummary.xlsx
+++ b/storage/app/templates/SpecialLeaveSummary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
